--- a/scripts/MM_Thesis.xlsx
+++ b/scripts/MM_Thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenareyes/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC875AE1-6356-464D-9B96-80CF3FD1E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07412EDB-AE90-DE4F-A01B-AB885B735B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{42C6AD68-0FB8-2E4C-A707-AC5E54FA418B}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,12 +279,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -325,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E628E5D-0CCA-6D4F-88B2-6FD347AAE687}">
-  <dimension ref="A4:H58"/>
+  <dimension ref="A4:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -775,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -816,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -856,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>3.5999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -896,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="1">
-        <v>3.6499999999999998E-2</v>
+        <v>1.8249999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,10 +944,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="7">
@@ -973,7 +964,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -993,11 +984,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="7">
@@ -1013,9 +1003,8 @@
         <v>7</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1035,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="G20" s="1">
-        <v>9.0499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.5240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="7">
@@ -1055,7 +1044,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="7">
@@ -1072,7 +1061,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1092,10 +1081,10 @@
         <v>11</v>
       </c>
       <c r="G23" s="1">
-        <v>3.0099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7">
@@ -1112,7 +1101,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1132,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="G25" s="1">
-        <v>9.2100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.6050000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7">
@@ -1152,7 +1141,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7">
@@ -1169,7 +1158,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7">
@@ -1186,7 +1175,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1206,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="G29" s="1">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7">
@@ -1226,7 +1215,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7">
@@ -1243,7 +1232,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7">
@@ -1297,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="1">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1371,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="1">
-        <v>0.80889999999999995</v>
+        <v>0.40444999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="1">
-        <v>103.3728</v>
+        <v>51.686399999999999</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1536,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="G47" s="1">
-        <v>15.9033</v>
+        <v>7.9516499999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1610,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="G51" s="1">
-        <v>604.10730000000001</v>
+        <v>302.05365</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -1684,7 +1673,7 @@
         <v>92</v>
       </c>
       <c r="G55" s="1">
-        <v>671.30510000000004</v>
+        <v>335.65255000000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -1741,56 +1730,56 @@
   </sheetData>
   <mergeCells count="51">
     <mergeCell ref="G51:G54"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G55:G58"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B46"/>
-    <mergeCell ref="G42:G46"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B47:B50"/>
-    <mergeCell ref="G47:G50"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A34:A37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G41"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="G25:G28"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="G29:G33"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
